--- a/SMT Assembly/PP.xlsx
+++ b/SMT Assembly/PP.xlsx
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1309,10 +1309,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>7.55</v>
+        <v>7.12</v>
       </c>
       <c r="C16" s="2">
-        <v>-9.0500000000000007</v>
+        <v>-9.09</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
